--- a/files/scRNA_seq_meta.xlsx
+++ b/files/scRNA_seq_meta.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellskr/Documents/Analysis/Lori_sussel/Ferret/sussel_ferret_sc_220429/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8101C0EF-FF51-1E43-8E27-D941C7A64445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839E45B-BFA4-7549-A861-EC1ED12ACD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qZzD4R9MHkY34uacjqt3UDyeD61BQpRgIo5GituA+M5TJZYrZGlKZCDSkAkMk0lzHa20F9kBcNHoSPrpZkW+dg==" workbookSaltValue="NTRFdVUfx51db2iwG+fWhA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="37240" yWindow="2840" windowWidth="33920" windowHeight="17440" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75640" yWindow="1660" windowWidth="33920" windowHeight="17440" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -563,25 +563,165 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Add characteristics such as:  
-tissue
-cell line
-cell type
-strain
-genotype
-genetic modification
-developmental stage
-sex
-treatment
-time
-disease state
-tumor stage
-ChIP antibody
-etc.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Add characteristics such as:  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tissue
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cell line
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cell type
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">strain
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">genotype
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">genetic modification
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">developmental stage
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sex
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">treatment
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">time
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disease state
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tumor stage
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIP antibody
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>etc.</t>
         </r>
       </text>
     </comment>
@@ -1719,37 +1859,129 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{5011AF2A-BF87-4698-86BB-C6BE38C846CB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">UCSC or NCBI genome build number (e.g., hg18, mm9, human NCBI genome build 36, etc...), or reference sequence used for read alignment. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
+    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{AFC6534B-FA69-234D-AEB0-1FEA9A55114E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Provide details of how processed data files were generated. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-      </text>
-    </comment>
-    <comment ref="A70" authorId="0" shapeId="0" xr:uid="{5554459D-FEB5-4529-B61F-590DE4D90A1A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Steps may include:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A70" authorId="0" shapeId="0" xr:uid="{5011AF2A-BF87-4698-86BB-C6BE38C846CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">UCSC or NCBI genome build number (e.g., hg18, mm9, human NCBI genome build 36, etc...), or reference sequence used for read alignment. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A71" authorId="0" shapeId="0" xr:uid="{5554459D-FEB5-4529-B61F-590DE4D90A1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1757,7 +1989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0" shapeId="0" xr:uid="{598D1DC7-A9B0-4677-9D1F-2A2B8154AFF5}">
+    <comment ref="A72" authorId="0" shapeId="0" xr:uid="{598D1DC7-A9B0-4677-9D1F-2A2B8154AFF5}">
       <text>
         <r>
           <rPr>
@@ -6822,7 +7054,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="690">
   <si>
     <t>SAMPLES</t>
   </si>
@@ -8835,6 +9067,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>MD5 Checksums</t>
     </r>
@@ -8851,6 +9084,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>Metadata</t>
     </r>
@@ -8858,6 +9092,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> tab.</t>
     </r>
@@ -8997,6 +9232,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>Upload your metadata file(s) on the Submit Metadata page</t>
     </r>
@@ -9029,6 +9265,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Instructions </t>
@@ -9038,6 +9275,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>for high-throughput sequence (HTS) submissions to NCBI GEO</t>
     </r>
@@ -9047,6 +9285,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Metadata </t>
@@ -9056,6 +9295,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>template</t>
     </r>
@@ -9065,6 +9305,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9073,6 +9314,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(Use this tab to provide study, sample and protocol information. Please </t>
     </r>
@@ -9081,6 +9323,7 @@
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>completely annotate</t>
     </r>
@@ -9089,6 +9332,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> the template. Failure to do so may result in </t>
     </r>
@@ -9097,6 +9341,7 @@
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>significant delays in processing</t>
     </r>
@@ -9105,6 +9350,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">.) </t>
     </r>
@@ -9114,6 +9360,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 MD5 Checksums</t>
@@ -9123,6 +9370,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> for the raw data files and processed data files referenced in Metadata Template     </t>
     </r>
@@ -9132,6 +9380,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 HTS-seq EXAMPLES:  </t>
@@ -9141,6 +9390,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>RNA-seq, ChIP-seq, scRNA-seq, CITE-seq, Spatial Transcriptomics  (Refer to the EXAMPLE sheets, as needed.  They can help you get started.)</t>
     </r>
@@ -9199,6 +9449,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>SuperSeries</t>
     </r>
@@ -9214,6 +9465,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>SuperSeries</t>
     </r>
@@ -9229,6 +9481,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>SuperSeries</t>
     </r>
@@ -9318,6 +9571,7 @@
         <sz val="14"/>
         <color theme="10"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9328,6 +9582,7 @@
         <sz val="14"/>
         <color theme="10"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Submit Metadata </t>
     </r>
@@ -9355,6 +9610,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>Metadata</t>
     </r>
@@ -9499,15 +9755,6 @@
     <t>John F. Englehardt</t>
   </si>
   <si>
-    <t>normalized_counts.txt</t>
-  </si>
-  <si>
-    <t>merged_dimensionality_reduction.txt</t>
-  </si>
-  <si>
-    <t>merged_metadata.txt</t>
-  </si>
-  <si>
     <t>CFKO_D9</t>
   </si>
   <si>
@@ -9843,12 +10090,33 @@
       <t>) upon publication.</t>
     </r>
   </si>
+  <si>
+    <t>Trajectory analysis. To perform trajectory analysis, we used `slingshot` . We identified starting clusters based on the cluster containing the most D2 cells for each WT and CFKO. We then used `tradeseq ` using the pseudotime scores generated by slingshot to identify genes that correlated with pseudotime. We used the function `evaluateK` to determine the number of knots (5 for the CFKO, 8 for WT) and the function `fitGAM` to identify correlated genes.</t>
+  </si>
+  <si>
+    <t>Mustela purorius furo, assembly ASM1176430v1.1</t>
+  </si>
+  <si>
+    <t>normalized_counts.csv</t>
+  </si>
+  <si>
+    <t>merged_metadata.csv</t>
+  </si>
+  <si>
+    <t>merged_dimensionality_reduction.csv</t>
+  </si>
+  <si>
+    <t>Tab separated values, comma separated values, matrix files</t>
+  </si>
+  <si>
+    <t>lineage_scores.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10041,11 +10309,13 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -10065,6 +10335,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -10072,12 +10343,14 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="helvetica"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -10133,15 +10406,6 @@
       <sz val="16"/>
       <name val="Arial Black"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
@@ -10233,6 +10497,7 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10477,7 +10742,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10511,37 +10776,37 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10553,40 +10818,40 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10610,10 +10875,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10635,32 +10900,32 @@
     <xf numFmtId="0" fontId="39" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -10688,6 +10953,28 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -10702,28 +10989,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -15069,10 +15334,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -15201,7 +15466,7 @@
       <c r="A11" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="72" t="s">
         <v>598</v>
       </c>
       <c r="C11" s="51"/>
@@ -15210,7 +15475,7 @@
       <c r="A12" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="74" t="s">
         <v>599</v>
       </c>
     </row>
@@ -15258,7 +15523,7 @@
         <v>354</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -15266,7 +15531,7 @@
         <v>354</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -15274,11 +15539,16 @@
         <v>354</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
@@ -15505,23 +15775,23 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14" t="s">
@@ -15534,43 +15804,43 @@
         <v>265</v>
       </c>
       <c r="L34" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="P34" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="Q34" s="14" t="s">
         <v>637</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14" t="s">
@@ -15580,46 +15850,46 @@
         <v>13</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M35" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="P35" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="Q35" s="14" t="s">
         <v>642</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q35" s="14" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14" t="s">
@@ -15629,46 +15899,46 @@
         <v>13</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M36" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q36" s="14" t="s">
         <v>646</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="P36" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q36" s="14" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14" t="s">
@@ -15678,46 +15948,46 @@
         <v>13</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M37" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="P37" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="Q37" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="P37" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q37" s="14" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14" t="s">
@@ -15727,46 +15997,46 @@
         <v>13</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M38" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="P38" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="Q38" s="14" t="s">
         <v>657</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="P38" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q38" s="14" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>623</v>
-      </c>
       <c r="D39" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14" t="s">
@@ -15776,46 +16046,46 @@
         <v>13</v>
       </c>
       <c r="K39" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="L39" s="14" t="s">
-        <v>635</v>
-      </c>
       <c r="M39" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="P39" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="Q39" s="14" t="s">
         <v>662</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="P39" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="37" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>621</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>624</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14" t="s">
@@ -15825,46 +16095,46 @@
         <v>13</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M40" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="P40" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="Q40" s="14" t="s">
         <v>667</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q40" s="14" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14" t="s">
@@ -15874,25 +16144,25 @@
         <v>13</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M41" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="P41" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="N41" s="14" t="s">
+      <c r="Q41" s="14" t="s">
         <v>672</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q41" s="14" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -16173,8 +16443,8 @@
       <c r="A56" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B56" s="83" t="s">
-        <v>676</v>
+      <c r="B56" s="74" t="s">
+        <v>673</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -16219,8 +16489,8 @@
       <c r="A58" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B58" s="84" t="s">
-        <v>677</v>
+      <c r="B58" s="75" t="s">
+        <v>674</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -16244,7 +16514,7 @@
         <v>363</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -16311,8 +16581,8 @@
       <c r="A62" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="B62" s="82" t="s">
-        <v>679</v>
+      <c r="B62" s="73" t="s">
+        <v>676</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -16335,8 +16605,8 @@
       <c r="A63" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="B63" s="83" t="s">
-        <v>680</v>
+      <c r="B63" s="74" t="s">
+        <v>677</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -16359,8 +16629,8 @@
       <c r="A64" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="B64" s="83" t="s">
-        <v>681</v>
+      <c r="B64" s="74" t="s">
+        <v>678</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -16383,8 +16653,8 @@
       <c r="A65" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="B65" s="83" t="s">
-        <v>682</v>
+      <c r="B65" s="74" t="s">
+        <v>679</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -16407,8 +16677,8 @@
       <c r="A66" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="B66" s="83" t="s">
-        <v>683</v>
+      <c r="B66" s="74" t="s">
+        <v>680</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -16432,7 +16702,7 @@
         <v>565</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -16455,8 +16725,8 @@
       <c r="A68" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="B68" s="82" t="s">
-        <v>685</v>
+      <c r="B68" s="73" t="s">
+        <v>682</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -16477,9 +16747,11 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B69" s="14"/>
+        <v>565</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>683</v>
+      </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
@@ -16499,9 +16771,11 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B70" s="14"/>
+        <v>365</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>684</v>
+      </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -16521,9 +16795,11 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="B71" s="14"/>
+        <v>366</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>688</v>
+      </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
@@ -16542,72 +16818,72 @@
       <c r="R71" s="14"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-    </row>
-    <row r="73" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="A72" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+    </row>
+    <row r="74" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="25"/>
-    </row>
-    <row r="74" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="11"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="25"/>
     </row>
     <row r="75" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -16629,7 +16905,7 @@
     </row>
     <row r="76" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -16649,94 +16925,116 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="11"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A77" s="55" t="s">
+    <row r="77" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="11"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B78" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="55"/>
-      <c r="R77" s="55"/>
-      <c r="S77" s="56"/>
-      <c r="T77" s="56"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>640</v>
-      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="56"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>675</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -16745,23 +17043,23 @@
   <conditionalFormatting sqref="A34:A53">
     <cfRule type="duplicateValues" dxfId="10" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:XFD1048576 C78:XFD85">
-    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
+  <conditionalFormatting sqref="A79:B86">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:XFD1048576 C79:XFD86">
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:C53 B34:B51">
-    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C26">
-    <cfRule type="duplicateValues" dxfId="7" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C71">
-    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
+  <conditionalFormatting sqref="C56:C72">
+    <cfRule type="duplicateValues" dxfId="5" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q52:XFD53 P34:XFD51">
-    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:B85">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
   </conditionalFormatting>
   <dataValidations xWindow="367" yWindow="405" count="17">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="One contributer per row, e.g." prompt="Jane, Doe_x000a_Yixin, Wang_x000a_John, H, Smith_x000a_Charles,E,Determan Jr_x000a_Monique,G,van der Wijst_x000a_Mark, Anderson Dumont_x000a_(insert additional rows as needed)_x000a_" sqref="B14:C17" xr:uid="{E3B18FF0-8187-4483-A85F-019FF99D71B4}"/>
@@ -16830,32 +17128,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="80" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="76"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
     </row>
     <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -16952,80 +17250,80 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="83" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="75"/>
+      <c r="B19" s="83"/>
     </row>
     <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="77" t="s">
         <v>591</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="77"/>
       <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="77" t="s">
         <v>592</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="77"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -19514,7 +19812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEF09D3-1EF4-451B-9716-D9A09736C051}">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>

--- a/files/scRNA_seq_meta.xlsx
+++ b/files/scRNA_seq_meta.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellskr/Documents/Analysis/Lori_sussel/Ferret/sussel_ferret_sc_220429/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839E45B-BFA4-7549-A861-EC1ED12ACD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC7395-4CA3-2247-9A12-3EE086BF1C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qZzD4R9MHkY34uacjqt3UDyeD61BQpRgIo5GituA+M5TJZYrZGlKZCDSkAkMk0lzHa20F9kBcNHoSPrpZkW+dg==" workbookSaltValue="NTRFdVUfx51db2iwG+fWhA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="75640" yWindow="1660" windowWidth="33920" windowHeight="17440" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36700" yWindow="1840" windowWidth="33920" windowHeight="17440" tabRatio="874" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -7054,7 +7054,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="733">
   <si>
     <t>SAMPLES</t>
   </si>
@@ -10110,6 +10110,135 @@
   </si>
   <si>
     <t>lineage_scores.csv</t>
+  </si>
+  <si>
+    <t>b5995f48ac42fa7326e78e8c50d07575</t>
+  </si>
+  <si>
+    <t>fe45d9bd88ccf5112e360dd435ae955a</t>
+  </si>
+  <si>
+    <t>6db8859fc92c5d7b7a2f3e142a3c477a</t>
+  </si>
+  <si>
+    <t>11982ec39cc6860cd9c1cf2fb92eb120</t>
+  </si>
+  <si>
+    <t>c73122fc46a08f727a9868090068969f</t>
+  </si>
+  <si>
+    <t>2b7061569d56eaea7f5b478f4481bd22</t>
+  </si>
+  <si>
+    <t>39f164f7ab53fd59f39b7938be1faebe</t>
+  </si>
+  <si>
+    <t>e51033d7d4dfe932dccf979e4b28c413</t>
+  </si>
+  <si>
+    <t>15dbb8f4510b8addb10865be310bce44</t>
+  </si>
+  <si>
+    <t>a28553b4060fe4fab93177c75d8f9dfd</t>
+  </si>
+  <si>
+    <t>a725805e5a325c31f66916a4e2ff7206</t>
+  </si>
+  <si>
+    <t>4a31e8fbfc920da78fcbe00c1edd97a8</t>
+  </si>
+  <si>
+    <t>99c977b1f4b4f23031c332897c1757a5</t>
+  </si>
+  <si>
+    <t>d90ae4ed4842adf421c0fbfedc9a521f</t>
+  </si>
+  <si>
+    <t>575968e8475e95fa71f97b066716f932</t>
+  </si>
+  <si>
+    <t>8f2354f6423f0ead60bb758dfb85d079</t>
+  </si>
+  <si>
+    <t>75f946faf1951fc8832b7fe4f7a45264</t>
+  </si>
+  <si>
+    <t>a75ef592f3c2ac045f5627129615fd34</t>
+  </si>
+  <si>
+    <t>e2956c67743026d5e2f793f6cc042f63</t>
+  </si>
+  <si>
+    <t>065ade1a9a5cd4e9b6924156261b210d</t>
+  </si>
+  <si>
+    <t>ca9f747311314922d967cc25d4bdb57e</t>
+  </si>
+  <si>
+    <t>9d14f3483e4767956eb3071bb01b0363</t>
+  </si>
+  <si>
+    <t>292ec3c1bbe3818ffb70ae8ae59c7f54</t>
+  </si>
+  <si>
+    <t>13f3f1ed0b30c07f5ae0233aa928c816</t>
+  </si>
+  <si>
+    <t>cc6f61144e1af1cd4c87a5ded9fed7b6</t>
+  </si>
+  <si>
+    <t>13ab4b493e0af373c19a1406501a1920</t>
+  </si>
+  <si>
+    <t>e2fcc5fd60c6183c48f1b04710000d42</t>
+  </si>
+  <si>
+    <t>319d82fd02e58d3bb1af6351b914e7d7</t>
+  </si>
+  <si>
+    <t>b87023fe52c6ab151b15826fd0f6a000</t>
+  </si>
+  <si>
+    <t>7c43ee41b510a729707dd8177f429c34</t>
+  </si>
+  <si>
+    <t>1e94c0f58ed509bb49a40692ca743a95</t>
+  </si>
+  <si>
+    <t>70894e936e8129cd280b6b76331d9ab1</t>
+  </si>
+  <si>
+    <t>0afb30f0c2b7fd3ea080f7ef1a93dfb6</t>
+  </si>
+  <si>
+    <t>3c76d309af824958fd34be1be4b47b90</t>
+  </si>
+  <si>
+    <t>01ae1cd0650479f48121c4c08cb7e1f8</t>
+  </si>
+  <si>
+    <t>0b915e84521bd67d16f891a493452a21</t>
+  </si>
+  <si>
+    <t>c40f99452ea63b7e01e521b9a633992c</t>
+  </si>
+  <si>
+    <t>2725b1f6534f3f2637ce532dfe7c1d61</t>
+  </si>
+  <si>
+    <t>827ffac9172394771d27c81382330184</t>
+  </si>
+  <si>
+    <t>8e4e70ecef6cf66ae74d3d2ff0a117be</t>
+  </si>
+  <si>
+    <t>fa01f4ab503d884be6ecccd814680ade</t>
+  </si>
+  <si>
+    <t>5d660d42f8d961e74649d6ba56c7beca</t>
+  </si>
+  <si>
+    <t>f108c4f7540eb2706d9d6a11a41cf454</t>
   </si>
 </sst>
 </file>
@@ -10744,7 +10873,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -10963,18 +11092,6 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -10989,6 +11106,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -15336,7 +15468,7 @@
   </sheetPr>
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -17128,32 +17260,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="76" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="84"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="81" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -17250,80 +17382,80 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="79" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="83"/>
+      <c r="B19" s="79"/>
     </row>
     <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="82" t="s">
         <v>591</v>
       </c>
-      <c r="B20" s="77"/>
+      <c r="B20" s="82"/>
       <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="82" t="s">
         <v>592</v>
       </c>
-      <c r="B21" s="77"/>
+      <c r="B21" s="82"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -17349,10 +17481,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -17409,9 +17541,321 @@
         <v>246</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="G24" s="85" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:G1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="A36:G1048576 A25:E35 C9:E24">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24360,13 +24804,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uHeIq0fTY+SkfiG0BUBfkRWN7VsHdDGQfAJwovwYuwp6zuFwWIwuY7JnUgHrIwBV4G25XMH5B7S3rMfU5U3akw==" saltValue="Zz3TVxIHK82bnZabgvGk9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="A61:E69">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:Y31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26:Y31">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the drop down menu" sqref="I30:K32" xr:uid="{79D6ECAE-44AD-41AB-84C9-88F44BE0AE81}">
